--- a/test/scheduleoutput.xlsx
+++ b/test/scheduleoutput.xlsx
@@ -590,13 +590,13 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -625,7 +625,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -646,10 +646,10 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -663,19 +663,19 @@
         <v>45</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -698,10 +698,10 @@
         <v>30</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -768,28 +768,28 @@
         <v>60</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>30</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -818,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0</v>

--- a/test/scheduleoutput.xlsx
+++ b/test/scheduleoutput.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="v0.19.2" sheetId="1" state="visible" r:id="rId2"/>
@@ -218,8 +218,8 @@
   </sheetPr>
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -312,9 +312,6 @@
       <c r="M2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="N2" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -357,9 +354,6 @@
       <c r="M3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="N3" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -402,9 +396,6 @@
       <c r="M4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="N4" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -447,9 +438,6 @@
       <c r="M5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="N5" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -492,9 +480,6 @@
       <c r="M6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="N6" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -516,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>1</v>
@@ -525,15 +510,12 @@
         <v>1</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -554,10 +536,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>0</v>
@@ -566,15 +548,12 @@
         <v>0</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -613,10 +592,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -639,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>1</v>
@@ -651,12 +627,9 @@
         <v>1</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -677,10 +650,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>0</v>
@@ -689,15 +662,12 @@
         <v>0</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -719,8 +689,8 @@
   </sheetPr>
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/test/scheduleoutput.xlsx
+++ b/test/scheduleoutput.xlsx
@@ -5,11 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="v0.19.2" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="v0.18.6" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t xml:space="preserve">jobname</t>
   </si>
@@ -212,20 +211,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.61"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -680,505 +676,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:N11"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.49"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <f aca="false">IF($B2&lt;&gt;"",AND($D2&lt;&gt;"",$E2&lt;&gt;""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <f aca="false">IF($B3&lt;&gt;"",AND($D3&lt;&gt;"",$E3&lt;&gt;""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <f aca="false">IF($B4&lt;&gt;"",AND($D4&lt;&gt;"",$E4&lt;&gt;""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <f aca="false">IF($B5&lt;&gt;"",AND($D5&lt;&gt;"",$E5&lt;&gt;""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <f aca="false">IF($B6&lt;&gt;"",AND($D6&lt;&gt;"",$E6&lt;&gt;""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <f aca="false">IF($B7&lt;&gt;"",AND($D7&lt;&gt;"",$E7&lt;&gt;""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <f aca="false">IF($B8&lt;&gt;"",AND($D8&lt;&gt;"",$E8&lt;&gt;""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <f aca="false">IF($B9&lt;&gt;"",AND($D9&lt;&gt;"",$E9&lt;&gt;""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <f aca="false">IF($B10&lt;&gt;"",AND($D10&lt;&gt;"",$E10&lt;&gt;""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <f aca="false">IF($B11&lt;&gt;"",AND($D11&lt;&gt;"",$E11&lt;&gt;""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"ページ &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/test/scheduleoutput.xlsx
+++ b/test/scheduleoutput.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="v0.19.2" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="v1.0.3" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t xml:space="preserve">jobname</t>
   </si>
@@ -100,9 +100,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -124,19 +124,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="IPA Pゴシック"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -181,21 +168,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -218,70 +197,69 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <f aca="false">IF($B2&lt;&gt;"",AND($D2&lt;&gt;"",$E2&lt;&gt;""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="0" t="n">
@@ -310,20 +288,19 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <f aca="false">IF($B3&lt;&gt;"",AND($D3&lt;&gt;"",$E3&lt;&gt;""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="0" t="n">
@@ -352,20 +329,19 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <f aca="false">IF($B4&lt;&gt;"",AND($D4&lt;&gt;"",$E4&lt;&gt;""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="0" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="0" t="n">
@@ -394,20 +370,19 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <f aca="false">IF($B5&lt;&gt;"",AND($D5&lt;&gt;"",$E5&lt;&gt;""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="0" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="0" t="n">
@@ -436,20 +411,19 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <f aca="false">IF($B6&lt;&gt;"",AND($D6&lt;&gt;"",$E6&lt;&gt;""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="0" t="n">
@@ -478,18 +452,21 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <f aca="false">IF($B7&lt;&gt;"",AND($D7&lt;&gt;"",$E7&lt;&gt;""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>11</v>
+      </c>
       <c r="F7" s="0" t="n">
         <v>0</v>
       </c>
@@ -516,32 +493,35 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <f aca="false">IF($B8&lt;&gt;"",AND($D8&lt;&gt;"",$E8&lt;&gt;""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>10</v>
+      </c>
       <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>0</v>
@@ -554,18 +534,21 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <f aca="false">IF($B9&lt;&gt;"",AND($D9&lt;&gt;"",$E9&lt;&gt;""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="F9" s="0" t="n">
         <v>0</v>
       </c>
@@ -592,18 +575,21 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <f aca="false">IF($B10&lt;&gt;"",AND($D10&lt;&gt;"",$E10&lt;&gt;""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>11</v>
+      </c>
       <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
@@ -630,32 +616,35 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <f aca="false">IF($B11&lt;&gt;"",AND($D11&lt;&gt;"",$E11&lt;&gt;""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>10</v>
+      </c>
       <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>0</v>
@@ -669,8 +658,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
